--- a/Tableau_correspondance_pins.xlsx
+++ b/Tableau_correspondance_pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa466660\Documents\Projet_frelons\Projet-frelons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537AE18-0BC1-4755-90D3-A4393C611F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBBB68-8A42-4945-B227-68CF62927DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="3120" windowWidth="21600" windowHeight="11370" xr2:uid="{2FD113CF-CF56-486C-8B3B-97A82786E65A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -262,6 +261,90 @@
   </si>
   <si>
     <t>Partagé avec</t>
+  </si>
+  <si>
+    <t>VSYNC</t>
+  </si>
+  <si>
+    <t>SIO_C</t>
+  </si>
+  <si>
+    <t>PCLK</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>SIO_D</t>
+  </si>
+  <si>
+    <t>HREF</t>
+  </si>
+  <si>
+    <t>XCLK</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>SD CARD</t>
+  </si>
+  <si>
+    <t>SD_HOST_D2</t>
+  </si>
+  <si>
+    <t>SD_HOST_D3</t>
+  </si>
+  <si>
+    <t>SD_HOST_CMD</t>
+  </si>
+  <si>
+    <t>SD_HOST_CLK</t>
+  </si>
+  <si>
+    <t>SD_HOST_D0</t>
+  </si>
+  <si>
+    <t>SD_HOST_D1</t>
+  </si>
+  <si>
+    <t>SD_DET</t>
   </si>
 </sst>
 </file>
@@ -277,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +370,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,12 +430,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9B9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E912D6-AB9E-4A76-BE31-1DD661ED000F}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,15 +780,16 @@
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -676,13 +801,14 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,23 +824,24 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -731,8 +858,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -749,8 +877,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -767,8 +896,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,15 +908,18 @@
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -796,15 +929,18 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -814,15 +950,18 @@
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -832,15 +971,18 @@
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -857,8 +999,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -875,8 +1018,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -886,15 +1030,18 @@
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -904,15 +1051,18 @@
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -922,15 +1072,18 @@
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -940,15 +1093,18 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -958,15 +1114,18 @@
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -983,8 +1142,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -994,15 +1154,18 @@
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1019,8 +1182,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1037,8 +1201,9 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1055,8 +1220,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1073,8 +1239,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1091,8 +1258,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1109,8 +1277,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1120,15 +1289,18 @@
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1138,15 +1310,20 @@
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1156,15 +1333,20 @@
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1174,15 +1356,22 @@
       <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1199,8 +1388,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1217,8 +1407,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1228,15 +1419,18 @@
       <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1246,15 +1440,18 @@
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1264,15 +1461,18 @@
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1289,8 +1489,9 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1300,15 +1501,20 @@
       <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1325,8 +1531,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1343,8 +1550,9 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1354,15 +1562,18 @@
       <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1372,15 +1583,18 @@
       <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1397,8 +1611,9 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1409,8 +1624,9 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1421,12 +1637,28 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tableau_correspondance_pins.xlsx
+++ b/Tableau_correspondance_pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa466660\Documents\Projet_frelons\Projet-frelons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBBB68-8A42-4945-B227-68CF62927DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F3DFE-0336-4BCB-8072-106368BA3964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3120" windowWidth="21600" windowHeight="11370" xr2:uid="{2FD113CF-CF56-486C-8B3B-97A82786E65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FD113CF-CF56-486C-8B3B-97A82786E65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -50,9 +50,6 @@
     <t>ESP WROVER KIT</t>
   </si>
   <si>
-    <t>PROJET FRELON</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -179,87 +176,9 @@
     <t>GPIO35, ADC1_CH6, RTC_GPIO5</t>
   </si>
   <si>
-    <t>GPIO25</t>
-  </si>
-  <si>
-    <t>GPIO26</t>
-  </si>
-  <si>
-    <t>GPIO27</t>
-  </si>
-  <si>
-    <t>GPIO14</t>
-  </si>
-  <si>
-    <t>GPIO12</t>
-  </si>
-  <si>
-    <t>GPIO13</t>
-  </si>
-  <si>
-    <t>GPIO9</t>
-  </si>
-  <si>
-    <t>GPIO10</t>
-  </si>
-  <si>
-    <t>GPIO11</t>
-  </si>
-  <si>
-    <t>GPIO6</t>
-  </si>
-  <si>
-    <t>GPIO7</t>
-  </si>
-  <si>
-    <t>GPIO8</t>
-  </si>
-  <si>
-    <t>GPIO15</t>
-  </si>
-  <si>
-    <t>GPIO2</t>
-  </si>
-  <si>
-    <t>GPIO0</t>
-  </si>
-  <si>
-    <t>GPIO4</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>GPIO5</t>
-  </si>
-  <si>
-    <t>GPIO18</t>
-  </si>
-  <si>
-    <t>GPIO19</t>
-  </si>
-  <si>
-    <t>GPIO21</t>
-  </si>
-  <si>
-    <t>GPIO3</t>
-  </si>
-  <si>
-    <t>GPIO1</t>
-  </si>
-  <si>
-    <t>GPIO22</t>
-  </si>
-  <si>
-    <t>GPIO23</t>
-  </si>
-  <si>
-    <t>GPIO32, XTAL_32K_P</t>
-  </si>
-  <si>
-    <t>GPIO33, XTAL_32K_N</t>
-  </si>
-  <si>
     <t>Partagé avec</t>
   </si>
   <si>
@@ -345,6 +264,144 @@
   </si>
   <si>
     <t>SD_DET</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>MTMS</t>
+  </si>
+  <si>
+    <t>MTDO</t>
+  </si>
+  <si>
+    <t>MTDI</t>
+  </si>
+  <si>
+    <t>MTCK</t>
+  </si>
+  <si>
+    <t>nTRST</t>
+  </si>
+  <si>
+    <t>ECRAN LCD</t>
+  </si>
+  <si>
+    <t>LCD_RST_1</t>
+  </si>
+  <si>
+    <t>LCD_CLK_1</t>
+  </si>
+  <si>
+    <t>LCD_D/CX_1</t>
+  </si>
+  <si>
+    <t>LCD_CS_1</t>
+  </si>
+  <si>
+    <t>LCD_MOSI_1</t>
+  </si>
+  <si>
+    <t>LCD_MISO_1</t>
+  </si>
+  <si>
+    <t>SHUNTE IO23</t>
+  </si>
+  <si>
+    <t>Quartz32K</t>
+  </si>
+  <si>
+    <t>BUS SPI</t>
+  </si>
+  <si>
+    <t>GPIO32, XTAL_32K_P (32.768 kHz crystal oscillator input), ADC1_CH4, TOUCH9, RTC_GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO33, XTAL_32K_N (32.768 kHz crystal oscillator output), ADC1_CH5, TOUCH8, RTC_GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO25, DAC_1, ADC2_CH8, RTC_GPIO6, EMAC_RXD0</t>
+  </si>
+  <si>
+    <t>GPIO26, DAC_2, ADC2_CH9, RTC_GPIO7, EMAC_RXD1</t>
+  </si>
+  <si>
+    <t>GPIO27, ADC2_CH7, TOUCH7, RTC_GPIO17, EMAC_RX_DV</t>
+  </si>
+  <si>
+    <t>GPIO14, ADC2_CH6, TOUCH6, RTC_GPIO16, MTMS, HSPICLK, HS2_CLK, SD_CLK, EMAC_TXD2</t>
+  </si>
+  <si>
+    <t>GPIO12, ADC2_CH5, TOUCH5, RTC_GPIO15, MTDI, HSPIQ, HS2_DATA2, SD_DATA2, EMAC_TXD3</t>
+  </si>
+  <si>
+    <t>GPIO13, ADC2_CH4, TOUCH4, RTC_GPIO14, MTCK, HSPID, HS2_DATA3, SD_DATA3, EMAC_RX_ER</t>
+  </si>
+  <si>
+    <t>GPIO9, SD_DATA2, SPIHD, HS1_DATA2, U1RXD</t>
+  </si>
+  <si>
+    <t>GPIO10, SD_DATA3, SPIWP, HS1_DATA3, U1TXD</t>
+  </si>
+  <si>
+    <t>GPIO11, SD_CMD, SPICS0, HS1_CMD, U1RTS</t>
+  </si>
+  <si>
+    <t>GPIO6, SD_CLK, SPICLK, HS1_CLK, U1CTS</t>
+  </si>
+  <si>
+    <t>GPIO7, SD_DATA0, SPIQ, HS1_DATA0, U2RTS</t>
+  </si>
+  <si>
+    <t>GPIO8, SD_DATA1, SPID, HS1_DATA1, U2CTS</t>
+  </si>
+  <si>
+    <t>GPIO15, ADC2_CH3, TOUCH3, MTDO, HSPICS0, RTC_GPIO13, HS2_CMD, SD_CMD, EMAC_RXD3</t>
+  </si>
+  <si>
+    <t>GPIO2, ADC2_CH2, TOUCH2, RTC_GPIO12, HSPIWP, HS2_DATA0, SD_DATA0</t>
+  </si>
+  <si>
+    <t>GPIO0, ADC2_CH1, TOUCH1, RTC_GPIO11, CLK_OUT1, EMAC_TX_CLK</t>
+  </si>
+  <si>
+    <t>GPIO4, ADC2_CH0, TOUCH0, RTC_GPIO10, HSPIHD, HS2_DATA1, SD_DATA1, EMAC_TX_ER</t>
+  </si>
+  <si>
+    <t>GPIO5, VSPICS0, HS1_DATA6, EMAC_RX_CLK</t>
+  </si>
+  <si>
+    <t>GPIO18, VSPICLK, HS1_DATA7</t>
+  </si>
+  <si>
+    <t>GPIO19, VSPIQ, U0CTS, EMAC_TXD0</t>
+  </si>
+  <si>
+    <t>GPIO21, VSPIHD, EMAC_TX_EN</t>
+  </si>
+  <si>
+    <t>GPIO3, U0RXD, CLK_OUT2</t>
+  </si>
+  <si>
+    <t>GPIO1, U0TXD, CLK_OUT3, EMAC_RXD2</t>
+  </si>
+  <si>
+    <t>GPIO22, VSPIWP, U0RTS, EMAC_TXD1</t>
+  </si>
+  <si>
+    <t>GPIO23, VSPID, HS1_STROBE</t>
+  </si>
+  <si>
+    <t>Projet Frelon</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>POWER PIN</t>
   </si>
 </sst>
 </file>
@@ -360,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +445,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFA0F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF979E94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA667F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,25 +508,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,6 +573,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA667F"/>
+      <color rgb="FF979E94"/>
+      <color rgb="FFCFA0F6"/>
       <color rgb="FFFF9B9B"/>
     </mruColors>
   </colors>
@@ -767,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E912D6-AB9E-4A76-BE31-1DD661ED000F}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,36 +899,34 @@
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,843 +940,856 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
+      <c r="C4" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>90</v>
+      <c r="C6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>87</v>
+      <c r="C8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="C12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>84</v>
+      <c r="C13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="C15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="C16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="C18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>60</v>
+      <c r="C25" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>101</v>
+      <c r="C26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="F26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="21"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>83</v>
+      <c r="C27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="2"/>
+      <c r="F27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="C28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
+      <c r="C29" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
+      <c r="C30" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>82</v>
+      <c r="C31" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="C32" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="C33" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="C34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
+      <c r="C36" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>70</v>
+      <c r="C37" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2"/>
+      <c r="C38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="C39" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
+      <c r="C40" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
